--- a/medicine/Enfance/Vincent_Cuvellier/Vincent_Cuvellier.xlsx
+++ b/medicine/Enfance/Vincent_Cuvellier/Vincent_Cuvellier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vincent Cuvellier, né le 3 octobre 1969 à Brest, est un écrivain français. Il vit à Bruxelles.
 </t>
@@ -511,17 +523,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il arrête ses études à 16 ans et publie son premier livre, La troisième vie en 1987, à 17 ans. Pour cet ouvrage, il obtient le prix Prix du jeune écrivain de langue française[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il arrête ses études à 16 ans et publie son premier livre, La troisième vie en 1987, à 17 ans. Pour cet ouvrage, il obtient le prix Prix du jeune écrivain de langue française.
 Après avoir fait plusieurs métiers, il devient écrivain avec son premier roman pour la jeunesse, Kilomètre zéro  en 2001. Depuis, il publie dans divers domaines, tels que le roman, l'album, ou la BD.
-Ses éditeurs principaux sont Gallimard Jeunesse et les  Éditions du Rouergue. Il est aussi directeur de la collection « T’étais qui toi ? » chez Actes Sud Junior[2] avec douze titres parus.
-Plusieurs de ses albums jeunesse sont illustrés par Charles Dutertre, dont en 2004 Tu parles, Charles !, qui obtient plusieurs prix jeunesse, ou La première fois que je suis née. Ce dernier est adapté en concert en 2010 par l'orchestre national d'Île-de-France[3]. Un album-CD sera publié l'année suivante, récompensé par le Grand Prix de l'Académie Charles-Cros en 2012[3].
-En 2010, il obtient la  « Mention » du prix BolognaRagazzi, dans la catégorie Fiction, prix international de la Foire du livre de jeunesse de Bologne[4] pour l'album-CD Ici, Londres qu'il a écrit, illustré par Anne Herbauts.
+Ses éditeurs principaux sont Gallimard Jeunesse et les  Éditions du Rouergue. Il est aussi directeur de la collection « T’étais qui toi ? » chez Actes Sud Junior avec douze titres parus.
+Plusieurs de ses albums jeunesse sont illustrés par Charles Dutertre, dont en 2004 Tu parles, Charles !, qui obtient plusieurs prix jeunesse, ou La première fois que je suis née. Ce dernier est adapté en concert en 2010 par l'orchestre national d'Île-de-France. Un album-CD sera publié l'année suivante, récompensé par le Grand Prix de l'Académie Charles-Cros en 2012.
+En 2010, il obtient la  « Mention » du prix BolognaRagazzi, dans la catégorie Fiction, prix international de la Foire du livre de jeunesse de Bologne pour l'album-CD Ici, Londres qu'il a écrit, illustré par Anne Herbauts.
 Il publie deux livres sur le métier d'écrivain de littérature jeunesse : La fois où je suis devenu écrivain en 2012 (Rouergue) et Je ne suis pas auteur jeunesse en 2017 (Gallimard-Giboulées).
-Il est également le créateur de la série du « petit garçon têtu[5] » Émile[6],[7],[8], illustrée par Ronan Badel, créée en 2012.
+Il est également le créateur de la série du « petit garçon têtu » Émile illustrée par Ronan Badel, créée en 2012.
 En 2017, il scénarise une bande dessinée, dessinée par Max de Radiguès, La Cire moderne (Casterman).
-En 2020, son ouvrage jeunesse Le temps des Marguerite, illustré par Robin (2009) est adapté au cinéma[9] sous le titre L'Aventure des Marguerite, réalisé par Pierre Coré.
+En 2020, son ouvrage jeunesse Le temps des Marguerite, illustré par Robin (2009) est adapté au cinéma sous le titre L'Aventure des Marguerite, réalisé par Pierre Coré.
 </t>
         </is>
       </c>
@@ -552,12 +566,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Littérature adulte
-La troisième vie, 1987 Prix du jeune écrivain de langue française 1987
-Littérature jeunesse
-Série Émile [5],[6],[7],[8], illustrée par Ronan Badel. Une vingtaine de titres depuis 2012, dont :
-Émile est invisible (Gallimard-Giboulées) 2012  (ISBN 978-2070644254) Prix Sorcières 2013 -  Prix des libraires du Québec section Jeunesse[10] 2013.
-Émile en musique (Gallimard jeunesse-Giboulées) 2015  (ISBN 978-2-07-066933-2) Coup de coeur Jeune Public printemps 2016 de l'Académie Charles-Cros avec Ronan Badel[11]
+          <t>Littérature adulte</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La troisième vie, 1987 Prix du jeune écrivain de langue française 1987</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vincent_Cuvellier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincent_Cuvellier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Quelques œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Série Émile  illustrée par Ronan Badel. Une vingtaine de titres depuis 2012, dont :
+Émile est invisible (Gallimard-Giboulées) 2012  (ISBN 978-2070644254) Prix Sorcières 2013 -  Prix des libraires du Québec section Jeunesse 2013.
+Émile en musique (Gallimard jeunesse-Giboulées) 2015  (ISBN 978-2-07-066933-2) Coup de coeur Jeune Public printemps 2016 de l'Académie Charles-Cros avec Ronan Badel
 Kilomètre zéro, Rouergue, 2001.
 La chauffeuse de bus, Illustrations de Candice Hayat, Rouergue, 2002.
 Tu parles, Charles !, Illustrations de Charles Dutertre, Rouergue, 2004  (ISBN 978-2841565528) Prix Tam-Tam 2004
@@ -567,7 +620,7 @@
 Le grand secret, Illustrations de Robin, Gallimard Giboulées, 2006  (ISBN 978-2070633579)
 La première fois que je suis née Illustrations de Charles Dutertre, Gallimard Giboulées, 2006  (ISBN 978-2070632374)
 Jean-Débile Monchon et moi, Illustrations d'Aurélie Grand, Rouergue, 2007
-L'enfant qui grandissait[12], Illustrations de Charles Dutertre, Gallimard Giboulées, 2008  (ISBN 978-2070616091)
+L'enfant qui grandissait, Illustrations de Charles Dutertre, Gallimard Giboulées, 2008  (ISBN 978-2070616091)
  L'archiduc de Tralala et autres histoires, illustrations Charles Dutertre, Bayard jeunesse, 2008
 L'Histoire de Clara, Illustrations de Charles Dutertre, Gallimard Giboulées, 2009  (ISBN 978-2070622023)
 La légendaire histoire des 12 sœurs Flute, Illustrations de Ronan Badel, Gallimard Giboulées, 2010  (ISBN 978-2070695454)
@@ -575,7 +628,7 @@
 La fois où je suis devenu écrivain, Rouergue, 2012
 Les enfants sont méchants, Illustrations d'Aurélie Guillerey, Gallimard-Giboulées, 2012  (ISBN 978-2070639366)
  Benjamin et ses copains , illustrations de Aurélie Grand, Rouergue, 2013
-J’aime pas les clowns[13],[14], illustrations de Rémi Courgeon, Paris, Gallimard-jeunesse Giboulées, coll. « Hors-série Giboulées », 2015
+J’aime pas les clowns illustrations de Rémi Courgeon, Paris, Gallimard-jeunesse Giboulées, coll. « Hors-série Giboulées », 2015
 Je ne suis pas un auteur jeunesse, Illustrations de Robin, Gallimard-Giboulées, 2017  (ISBN 978-2-07-065372-0)
 Les jours pairs, Illustrations de Thomas Baas, Hélium, 2017.
  Benjamin et ses copines , illustrations de Aurélie Grand. Rouergue, 2017
@@ -586,58 +639,7 @@
 Papa-clown, les Éditions pneumatiques, 2019
 Le plus mauvais livre du monde , Nathan, 2020
  La traversée des animaux, illustrations de Brice Postma Uzel, Gallimard jeunesse-Giboulées, 2020.
-Elisabeth sous les toits. Illustrations de Guillaume Bianco. Little urban. 2023.
-Bande dessinée
-Le Temps des Marguerite, Illustrations de Robin, Gallimard-giboulées, 2009.
-La Cire moderne, dessin de Max de Radiguès, Casterman, 2017
-Série La fille du président, dessins de olivier Deloye. Auzou. 2021.
-Série Les Nouveaux, dessins de Benoît Audé, BD kids. 2020.
-Livrets de spectacles musicaux
-Avec Marc-Olivier Dupin et l’orchestre national d'Île-de-France, il participe à la création de trois spectacles musicaux, créés Salle Pleyel, au Théâtre du Châtelet et à la Philharmonie (depuis 2010): La première fois que je suis née, L'histoire de Clara, interprétés par Donatienne Michel-Dansac et Émile, interprété par Guillaume Marquet.
-Avec Jean-François Verdier et l’orchestre Victor Hugo, il crée Nuage rouge (2016) à Besançon.
-Album-CD
-Ici Londres, sur une idée originale de Vincent Cuvellier ; texte Vincent Cuvellier ; illustrations Anne Herbauts ; dossier historique Aurélie Luneau ; musique Olivier Mellano, éd. du Rouergue, 2009 - album jeunesse accompagné d'un CD  « Mention » au Prix BolognaRagazzi, catégorie Fiction, Foire du livre de jeunesse de Bologne 2010[4] 
-La première fois que je suis née, dessin de Charles Dutertre, musique de Marc-Olivier Dupin, interprété par l'orchestre national ile-de-France et Donatienne Michel-Dansac. Gallimard 2011. Récompensé par le Grand Prix de l'Académie Charles-Cros en 2012[3].
-Émile en musique, illustrations de Ronan Badel, musique de Marc-Olivier Dupin, interprétée par l'Orchestre national d'Île-de-France et Guillaume Marquet. Gallimard. 2017.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Vincent_Cuvellier</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vincent_Cuvellier</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Prix et distinctions</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1987 : Prix du jeune écrivain de langue française
-2004 : Prix Tam-Tam[15]  pour  Tu parles, Charles !, illustré par Charles Dutertre
-2006 : Prix des Incorruptibles[16] pour  Tu parles, Charles !, illustré par Charles Dutertre
-2006 :  Prix Bernard Versele (4 chouettes) pour  Tu parles, Charles !, illustré par Charles Dutertre
-2009 : Prix des Incorruptibles[16] pour La première fois que je suis née, illustré par Charles Dutertre
-2010 :  « Mention » au Prix BolognaRagazzi, catégorie Fiction, Foire du livre de jeunesse de Bologne[4] pour Ici, Londres, illustré par Anne Herbauts
-2012 : Grand Prix de l'Académie Charles-Cros[3] pour l'édition musicale (album-CD) de La première fois que je suis née, illustrations de Charles Dutertre, musique orchestre national d'Île-de-France
-2013 : Prix Sorcières[17],[6] pour le tome de la série Émile : Émile est invisible, illustré par Ronan Badel
-2013 :  Prix des libraires du Québec section Jeunesse[10],[6], pour  Émile est invisible, illustré par Ronan Badel
-2017 :  Prix littéraire Vittoria Samarelli (Castel Goffredo)[18]</t>
+Elisabeth sous les toits. Illustrations de Guillaume Bianco. Little urban. 2023.</t>
         </is>
       </c>
     </row>
@@ -662,13 +664,139 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Quelques œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Temps des Marguerite, Illustrations de Robin, Gallimard-giboulées, 2009.
+La Cire moderne, dessin de Max de Radiguès, Casterman, 2017
+Série La fille du président, dessins de olivier Deloye. Auzou. 2021.
+Série Les Nouveaux, dessins de Benoît Audé, BD kids. 2020.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vincent_Cuvellier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincent_Cuvellier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Quelques œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Livrets de spectacles musicaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Avec Marc-Olivier Dupin et l’orchestre national d'Île-de-France, il participe à la création de trois spectacles musicaux, créés Salle Pleyel, au Théâtre du Châtelet et à la Philharmonie (depuis 2010): La première fois que je suis née, L'histoire de Clara, interprétés par Donatienne Michel-Dansac et Émile, interprété par Guillaume Marquet.
+Avec Jean-François Verdier et l’orchestre Victor Hugo, il crée Nuage rouge (2016) à Besançon.
+Album-CD
+Ici Londres, sur une idée originale de Vincent Cuvellier ; texte Vincent Cuvellier ; illustrations Anne Herbauts ; dossier historique Aurélie Luneau ; musique Olivier Mellano, éd. du Rouergue, 2009 - album jeunesse accompagné d'un CD  « Mention » au Prix BolognaRagazzi, catégorie Fiction, Foire du livre de jeunesse de Bologne 2010 
+La première fois que je suis née, dessin de Charles Dutertre, musique de Marc-Olivier Dupin, interprété par l'orchestre national ile-de-France et Donatienne Michel-Dansac. Gallimard 2011. Récompensé par le Grand Prix de l'Académie Charles-Cros en 2012.
+Émile en musique, illustrations de Ronan Badel, musique de Marc-Olivier Dupin, interprétée par l'Orchestre national d'Île-de-France et Guillaume Marquet. Gallimard. 2017.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vincent_Cuvellier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincent_Cuvellier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1987 : Prix du jeune écrivain de langue française
+2004 : Prix Tam-Tam  pour  Tu parles, Charles !, illustré par Charles Dutertre
+2006 : Prix des Incorruptibles pour  Tu parles, Charles !, illustré par Charles Dutertre
+2006 :  Prix Bernard Versele (4 chouettes) pour  Tu parles, Charles !, illustré par Charles Dutertre
+2009 : Prix des Incorruptibles pour La première fois que je suis née, illustré par Charles Dutertre
+2010 :  « Mention » au Prix BolognaRagazzi, catégorie Fiction, Foire du livre de jeunesse de Bologne pour Ici, Londres, illustré par Anne Herbauts
+2012 : Grand Prix de l'Académie Charles-Cros pour l'édition musicale (album-CD) de La première fois que je suis née, illustrations de Charles Dutertre, musique orchestre national d'Île-de-France
+2013 : Prix Sorcières, pour le tome de la série Émile : Émile est invisible, illustré par Ronan Badel
+2013 :  Prix des libraires du Québec section Jeunesse pour  Émile est invisible, illustré par Ronan Badel
+2017 :  Prix littéraire Vittoria Samarelli (Castel Goffredo)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vincent_Cuvellier</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincent_Cuvellier</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Adaptation de son œuvre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Au cinéma
-2020 : L'Aventure des Marguerite, film français réalisé par Pierre Coré, d'après son livre Le temps des Marguerite[9] (2009), illustré par Robin.</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2020 : L'Aventure des Marguerite, film français réalisé par Pierre Coré, d'après son livre Le temps des Marguerite (2009), illustré par Robin.</t>
         </is>
       </c>
     </row>
